--- a/分享内容/广告拦截/安卓浏览器广告拦截的实现方法.xlsx
+++ b/分享内容/广告拦截/安卓浏览器广告拦截的实现方法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10871" activeTab="4"/>
+    <workbookView windowWidth="21480" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="信息论" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F34" authorId="0">
+    <comment ref="F35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F35" authorId="0">
+    <comment ref="F36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -200,12 +200,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>拦截规则说明</t>
   </si>
   <si>
     <t>编写规则</t>
+  </si>
+  <si>
+    <t>页面加载流程</t>
   </si>
   <si>
     <t>A not so short history of Adblock</t>
@@ -309,6 +312,15 @@
     <t xml:space="preserve">NoScript author put lots of creativity into preventing his ads from being blocked. </t>
   </si>
   <si>
+    <t xml:space="preserve">Cliqz-Ghostery </t>
+  </si>
+  <si>
+    <t>David Cancel，Cliqz GmbH</t>
+  </si>
+  <si>
+    <t>Cliqz GmbH是一家总部位于德国慕尼黑，由Mozilla和Hubert Media支持的德国公司</t>
+  </si>
+  <si>
     <t xml:space="preserve">AdGuard </t>
   </si>
   <si>
@@ -318,15 +330,6 @@
     <t>AdGuard 不想只依赖浏览器提供的那些能力。这就是为什么我们的旗舰产品是独立程序，允许系统级拦截广告和跟踪器。</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliqz-Ghostery </t>
-  </si>
-  <si>
-    <t>David Cancel，Cliqz GmbH</t>
-  </si>
-  <si>
-    <t>Cliqz GmbH是一家总部位于德国慕尼黑，由Mozilla和Hubert Media支持的德国公司</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Adblock Plus</t>
   </si>
   <si>
@@ -370,6 +373,9 @@
   </si>
   <si>
     <t>uBlock Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 因为屏蔽 CSP 而遭受批评</t>
   </si>
   <si>
     <t>Evidon, Inc</t>
@@ -458,16 +464,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -475,7 +481,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -483,7 +489,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -491,21 +497,22 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -513,7 +520,66 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -521,14 +587,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -536,92 +625,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -633,19 +650,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,163 +770,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,54 +846,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,7 +859,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,11 +881,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,153 +911,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,55 +1112,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1183,8 +1200,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7254240" y="2926080"/>
-          <a:ext cx="243840" cy="243840"/>
+          <a:off x="8060055" y="2743200"/>
+          <a:ext cx="243840" cy="232410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1224,8 +1241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4526280" y="2377440"/>
-          <a:ext cx="243840" cy="243840"/>
+          <a:off x="5029200" y="2228850"/>
+          <a:ext cx="243840" cy="232410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1268,8 +1285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5151120" y="5364480"/>
-          <a:ext cx="4389755" cy="2926080"/>
+          <a:off x="5654040" y="5033010"/>
+          <a:ext cx="4917440" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1311,8 +1328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8481060" y="635"/>
-          <a:ext cx="3048000" cy="3048000"/>
+          <a:off x="9400540" y="635"/>
+          <a:ext cx="3387725" cy="2865120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,7 +1605,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1604,7 +1621,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1620,7 +1637,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="11" spans="7:7">
       <c r="G11" s="1" t="s">
@@ -1645,14 +1662,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="11" spans="5:5">
+      <c r="E11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" display="页面加载流程"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1661,32 +1687,32 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="29.3333333333333" customWidth="1"/>
     <col min="8" max="8" width="46" customWidth="1"/>
-    <col min="9" max="9" width="94.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="94.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6">
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="5:6">
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="5:8">
@@ -1694,60 +1720,60 @@
         <v>2002</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2003</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>2003</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="5:8">
@@ -1755,13 +1781,13 @@
         <v>2005</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="73" customHeight="1" spans="5:8">
@@ -1769,48 +1795,48 @@
         <v>2006</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1" spans="6:9">
       <c r="F12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="9:9">
       <c r="I13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="5:8">
@@ -1818,27 +1844,13 @@
         <v>2005</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8">
-      <c r="E17">
-        <v>2009</v>
-      </c>
-      <c r="F17" t="s">
         <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="5:8">
@@ -1846,13 +1858,27 @@
         <v>2008</v>
       </c>
       <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
         <v>38</v>
       </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19">
+        <v>2009</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G19" t="s">
         <v>40</v>
+      </c>
+      <c r="H19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="5:8">
@@ -1860,13 +1886,13 @@
         <v>2010</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="5:8">
@@ -1874,13 +1900,13 @@
         <v>2010</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="5:6">
@@ -1888,7 +1914,7 @@
         <v>2011</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="5:8">
@@ -1896,32 +1922,32 @@
         <v>-2014</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="5:8">
@@ -1929,54 +1955,68 @@
         <v>2015</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="5:8">
-      <c r="E34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33">
         <v>2017</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F33" t="s">
         <v>56</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
+    <row r="35" customFormat="1" spans="5:8">
       <c r="E35">
+        <v>2017</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36">
         <v>2018</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="F36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>58</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F35" r:id="rId3" display="Cliqz-Ghostery "/>
+    <hyperlink ref="F36" r:id="rId3" display="Cliqz-Ghostery "/>
     <hyperlink ref="F1" r:id="rId4" display="A not so short history of Adblock"/>
     <hyperlink ref="F2" r:id="rId5" display="The semi-authoritative, semi-complete history of the Adblock Plus project"/>
     <hyperlink ref="H12" r:id="rId6" display="more research on filter processing performance"/>
@@ -1984,7 +2024,8 @@
     <hyperlink ref="E2" r:id="rId8" display="（中文）"/>
     <hyperlink ref="F29" r:id="rId9" display="uMatrix"/>
     <hyperlink ref="A4" r:id="rId10" display=" Ad blocking or ad filtering"/>
-    <hyperlink ref="F34" r:id="rId3" display="Cliqz-Ghostery "/>
+    <hyperlink ref="F35" r:id="rId3" display="Cliqz-Ghostery "/>
+    <hyperlink ref="H33" r:id="rId11" display=" 因为屏蔽 CSP 而遭受批评"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2001,99 +2042,99 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="8" max="8" width="12.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="17.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="12.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="12.775" customWidth="1"/>
+    <col min="12" max="12" width="17.225" customWidth="1"/>
+    <col min="13" max="13" width="12.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="11" spans="8:12">
       <c r="H11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="6:12">
       <c r="F15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15"/>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="6:14">
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2116,40 +2157,40 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="10" max="10" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="8:8">
       <c r="H8" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="8:11">
       <c r="H13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="10:10">
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
